--- a/static/Automated Data/Safety.xlsx
+++ b/static/Automated Data/Safety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globalpsa.sharepoint.com/sites/PSAC-CNBD-YOD-efile/P16 YOD NonShift/Cess/Automated Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahgua\Documents\Website-visual\static\Automated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_EE0F12253A1FA0D10BEE29E9F0B3BFC60D9436E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE29DBD-DDC3-4BE8-9957-C229F1AB4D56}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C21036-3BE0-4014-995D-FAD054A3BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1380" windowWidth="14400" windowHeight="8183" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,18 +581,18 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.73046875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1">
+    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -620,13 +620,13 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -634,13 +634,13 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -648,13 +648,13 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -662,13 +662,13 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -676,13 +676,13 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -704,13 +704,13 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -718,13 +718,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -732,13 +732,13 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -746,13 +746,13 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -774,13 +774,13 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -788,13 +788,13 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -802,13 +802,13 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -816,13 +816,13 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -830,13 +830,13 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -844,13 +844,13 @@
         <v>7</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -858,13 +858,13 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -872,13 +872,13 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -886,13 +886,13 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -912,7 +912,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -932,7 +932,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -972,7 +972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -992,7 +992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1302,15 +1302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
@@ -1327,7 +1318,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb9b900708ce21fb21d70e28e8a76053">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56e66a110f34289da04c188353b10a0b" ns2:_="" ns3:_="">
     <xsd:import namespace="90d94301-7e12-4ce9-870c-87e055f2af11"/>
@@ -1547,68 +1597,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D220B5F9-5908-432E-A9AB-EAEA159EDB3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D220B5F9-5908-432E-A9AB-EAEA159EDB3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/Automated Data/Safety.xlsx
+++ b/static/Automated Data/Safety.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahgua\Documents\Website-visual\static\Automated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C21036-3BE0-4014-995D-FAD054A3BA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC204E-46DC-47BF-95E5-AED92339EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1380" windowWidth="14400" windowHeight="8183" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -581,7 +581,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -858,7 +858,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -1302,6 +1302,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
@@ -1318,66 +1327,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb9b900708ce21fb21d70e28e8a76053">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56e66a110f34289da04c188353b10a0b" ns2:_="" ns3:_="">
     <xsd:import namespace="90d94301-7e12-4ce9-870c-87e055f2af11"/>
@@ -1597,7 +1547,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1608,23 +1616,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D220B5F9-5908-432E-A9AB-EAEA159EDB3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1641,4 +1633,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/Automated Data/Safety.xlsx
+++ b/static/Automated Data/Safety.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahgua\Documents\Website-visual\static\Automated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC204E-46DC-47BF-95E5-AED92339EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{631575BE-ADE0-4C74-931A-E9F735772924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1141A7F6-6DFA-4177-A8CD-3D5BF507B677}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -240,13 +240,76 @@
   </si>
   <si>
     <t>TOH CHEE CHONG-Aug</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>CALVIN HO-Oct</t>
+  </si>
+  <si>
+    <t>CHNG MING HAO-Oct</t>
+  </si>
+  <si>
+    <t>MERVIN HO-Oct</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JAMALULLAIL BIN MAHADI-Oct</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ABDUL RAHIMI BIN RAHMAT-Oct</t>
+  </si>
+  <si>
+    <t>AUSTIN CHUE-Oct</t>
+  </si>
+  <si>
+    <t>JACINTA NISHANTHI D/O DHARMARAJ-Oct</t>
+  </si>
+  <si>
+    <t>HAIDAR BIN JUNIDI-Oct</t>
+  </si>
+  <si>
+    <t>ABDUL HAKIM BIN YUSOF-Oct</t>
+  </si>
+  <si>
+    <t>VELSON HO-Oct</t>
+  </si>
+  <si>
+    <t>LAI LIHONG-Oct</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAUZI BIN MURAT-Oct</t>
+  </si>
+  <si>
+    <t>TAN JIAN HONG-Oct</t>
+  </si>
+  <si>
+    <t>JOHNNY TAN-Oct</t>
+  </si>
+  <si>
+    <t>NOOR MUHAMMAD FARZHANI BIN SHAL*-Oct</t>
+  </si>
+  <si>
+    <t>LIM CHUN SERN-Oct</t>
+  </si>
+  <si>
+    <t>WAN ZULHELMI HAZWAN-Oct</t>
+  </si>
+  <si>
+    <t>JOE CHAN-Oct</t>
+  </si>
+  <si>
+    <t>ADNAN FAISHAL TAUFIQ-Oct</t>
+  </si>
+  <si>
+    <t>TOH CHEE CHONG-Oct</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +364,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}" name="Counts" displayName="Counts" ref="A1:F41" totalsRowShown="0">
-  <autoFilter ref="A1:F41" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}" name="Counts" displayName="Counts" ref="A1:F61" totalsRowShown="0">
+  <autoFilter ref="A1:F61" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9141748B-6317-4CD5-A0CF-0C621F2C636D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D729F9DC-2885-431A-8D27-044A575F6C94}" name="Month"/>
@@ -578,21 +641,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.73046875" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="6" max="6" width="40.73046875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,13 +675,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
       <c r="E2">
         <v>11</v>
       </c>
@@ -626,13 +695,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
       <c r="E3">
         <v>11</v>
       </c>
@@ -640,13 +715,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
       <c r="E4">
         <v>11</v>
       </c>
@@ -654,13 +735,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>26</v>
+      </c>
       <c r="E5">
         <v>13</v>
       </c>
@@ -668,13 +755,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
       <c r="E6">
         <v>7</v>
       </c>
@@ -682,13 +775,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>29</v>
+      </c>
       <c r="E7">
         <v>14</v>
       </c>
@@ -696,13 +795,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>33</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
@@ -710,13 +815,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
       <c r="E9">
         <v>13</v>
       </c>
@@ -724,13 +835,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
       <c r="E10">
         <v>13</v>
       </c>
@@ -738,13 +855,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>4</v>
       </c>
@@ -752,13 +875,19 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
         <v>4</v>
       </c>
@@ -766,13 +895,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <v>6</v>
       </c>
@@ -780,13 +915,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
       <c r="E14">
         <v>6</v>
       </c>
@@ -794,13 +935,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>11</v>
       </c>
@@ -808,13 +955,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -822,13 +975,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
         <v>4</v>
       </c>
@@ -836,13 +995,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
         <v>7</v>
       </c>
@@ -850,27 +1015,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>41</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
       <c r="E20">
         <v>5</v>
       </c>
@@ -878,13 +1055,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
       <c r="E21">
         <v>6</v>
       </c>
@@ -892,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -912,7 +1095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -932,7 +1115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -952,7 +1135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -972,7 +1155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -992,7 +1175,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1195,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1215,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1052,7 +1235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1092,7 +1275,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1112,7 +1295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1132,7 +1315,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +1335,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1172,7 +1355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1192,7 +1375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1212,7 +1395,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1232,7 +1415,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1252,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1272,7 +1455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1290,6 +1473,406 @@
       </c>
       <c r="F41" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1303,6 +1886,56 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
@@ -1310,7 +1943,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
@@ -1327,9 +1960,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb9b900708ce21fb21d70e28e8a76053">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56e66a110f34289da04c188353b10a0b" ns2:_="" ns3:_="">
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb57c7be49e2a98e4d3c93c5cc5759a8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07bbf6a8030390a3eb25b77571d27b" ns2:_="" ns3:_="">
     <xsd:import namespace="90d94301-7e12-4ce9-870c-87e055f2af11"/>
     <xsd:import namespace="98ab9645-6273-4dd2-93a8-2006c9571166"/>
     <xsd:element name="properties">
@@ -1547,98 +2180,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
-    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D220B5F9-5908-432E-A9AB-EAEA159EDB3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
-    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82533B83-2746-4351-881A-FC57D78D9795}"/>
 </file>
--- a/static/Automated Data/Safety.xlsx
+++ b/static/Automated Data/Safety.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahgua\Documents\Website-visual\static\Automated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{631575BE-ADE0-4C74-931A-E9F735772924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1141A7F6-6DFA-4177-A8CD-3D5BF507B677}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8597B33-09DD-4F76-BA48-36CCCB227575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -303,13 +303,76 @@
   </si>
   <si>
     <t>TOH CHEE CHONG-Oct</t>
+  </si>
+  <si>
+    <t>CALVIN HO-Nov</t>
+  </si>
+  <si>
+    <t>CHNG MING HAO-Nov</t>
+  </si>
+  <si>
+    <t>MERVIN HO-Nov</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JAMALULLAIL BIN MAHADI-Nov</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ABDUL RAHIMI BIN RAHMAT-Nov</t>
+  </si>
+  <si>
+    <t>AUSTIN CHUE-Nov</t>
+  </si>
+  <si>
+    <t>JACINTA NISHANTHI D/O DHARMARAJ-Nov</t>
+  </si>
+  <si>
+    <t>HAIDAR BIN JUNIDI-Nov</t>
+  </si>
+  <si>
+    <t>ABDUL HAKIM BIN YUSOF-Nov</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>VELSON HO-Nov</t>
+  </si>
+  <si>
+    <t>LAI LIHONG-Nov</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAUZI BIN MURAT-Nov</t>
+  </si>
+  <si>
+    <t>TAN JIAN HONG-Nov</t>
+  </si>
+  <si>
+    <t>JOHNNY TAN-Nov</t>
+  </si>
+  <si>
+    <t>NOOR MUHAMMAD FARZHANI BIN SHAL*-Nov</t>
+  </si>
+  <si>
+    <t>LIM CHUN SE-Nov</t>
+  </si>
+  <si>
+    <t>WAN ZULHELMI HAZWAN-Nov</t>
+  </si>
+  <si>
+    <t>JOE CHAN-Nov</t>
+  </si>
+  <si>
+    <t>ADNAN FAISHAL TAUFIQ0-Nov</t>
+  </si>
+  <si>
+    <t>TOH CHEE CHONG-Nov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +385,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,8 +419,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,8 +448,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}" name="Counts" displayName="Counts" ref="A1:F61" totalsRowShown="0">
-  <autoFilter ref="A1:F61" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}" name="Counts" displayName="Counts" ref="A1:F81" totalsRowShown="0">
+  <autoFilter ref="A1:F81" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9141748B-6317-4CD5-A0CF-0C621F2C636D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D729F9DC-2885-431A-8D27-044A575F6C94}" name="Month"/>
@@ -641,21 +725,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.73046875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="40.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1">
+    <row r="1" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -695,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -715,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -735,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -755,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -775,7 +859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -795,7 +879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -815,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -835,7 +919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -855,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -875,7 +959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -895,7 +979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -915,7 +999,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -935,7 +1019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -955,7 +1039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -975,7 +1059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -995,7 +1079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1015,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1035,7 +1119,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1055,7 +1139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1075,7 +1159,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1179,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1219,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1239,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1195,7 +1279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1235,7 +1319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1339,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1275,7 +1359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1295,7 +1379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +1399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1355,7 +1439,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1375,7 +1459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1395,7 +1479,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1415,7 +1499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1435,7 +1519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1455,7 +1539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1475,7 +1559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1619,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1639,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -1575,7 +1659,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -1595,7 +1679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1615,7 +1699,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -1655,7 +1739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -1675,7 +1759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>27</v>
       </c>
@@ -1695,7 +1779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>29</v>
       </c>
@@ -1715,7 +1799,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -1755,7 +1839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>35</v>
       </c>
@@ -1775,7 +1859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -1795,7 +1879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>39</v>
       </c>
@@ -1815,7 +1899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -1835,7 +1919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -1855,7 +1939,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -1873,6 +1957,406 @@
       </c>
       <c r="F61" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>6</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>6</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>13</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>7</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>11</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1885,6 +2369,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1934,33 +2427,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">
-      <Url>https://globalpsa.sharepoint.com/sites/PSAC-CNBD-YOD-efile/_layouts/15/DocIdRedir.aspx?ID=NTQKWFHJQEXS-722922400-10134</Url>
-      <Description>NTQKWFHJQEXS-722922400-10134</Description>
-    </_dlc_DocIdUrl>
-    <_Flow_SignoffStatus xmlns="98ab9645-6273-4dd2-93a8-2006c9571166" xsi:nil="true"/>
-    <TaxCatchAll xmlns="90d94301-7e12-4ce9-870c-87e055f2af11" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98ab9645-6273-4dd2-93a8-2006c9571166">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb57c7be49e2a98e4d3c93c5cc5759a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07bbf6a8030390a3eb25b77571d27b" ns2:_="" ns3:_="">
     <xsd:import namespace="90d94301-7e12-4ce9-870c-87e055f2af11"/>
@@ -2180,18 +2647,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">
+      <Url>https://globalpsa.sharepoint.com/sites/PSAC-CNBD-YOD-efile/_layouts/15/DocIdRedir.aspx?ID=NTQKWFHJQEXS-722922400-10134</Url>
+      <Description>NTQKWFHJQEXS-722922400-10134</Description>
+    </_dlc_DocIdUrl>
+    <_Flow_SignoffStatus xmlns="98ab9645-6273-4dd2-93a8-2006c9571166" xsi:nil="true"/>
+    <TaxCatchAll xmlns="90d94301-7e12-4ce9-870c-87e055f2af11" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98ab9645-6273-4dd2-93a8-2006c9571166">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82533B83-2746-4351-881A-FC57D78D9795}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82533B83-2746-4351-881A-FC57D78D9795}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/static/Automated Data/Safety.xlsx
+++ b/static/Automated Data/Safety.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahgua\Documents\Website-visual\static\Automated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8597B33-09DD-4F76-BA48-36CCCB227575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E1CB64-52DA-414B-9111-C12265D6A9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3075" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -366,6 +366,66 @@
   </si>
   <si>
     <t>TOH CHEE CHONG-Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>CALVIN HO-Dec</t>
+  </si>
+  <si>
+    <t>CHNG MING HAO-Dec</t>
+  </si>
+  <si>
+    <t>MERVIN HO-Dec</t>
+  </si>
+  <si>
+    <t>MUHAMMAD JAMALULLAIL BIN MAHADI-Dec</t>
+  </si>
+  <si>
+    <t>AUSTIN CHUE-Dec</t>
+  </si>
+  <si>
+    <t>JACINTA NISHANTHI D/O DHARMARAJ-Dec</t>
+  </si>
+  <si>
+    <t>HAIDAR BIN JUNIDI-Dec</t>
+  </si>
+  <si>
+    <t>ABDUL HAKIM BIN YUSOF-Dec</t>
+  </si>
+  <si>
+    <t>VELSON HO-Dec</t>
+  </si>
+  <si>
+    <t>LAI LIHONG-Dec</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAUZI BIN MURAT-Dec</t>
+  </si>
+  <si>
+    <t>TAN JIAN HONG-Dec</t>
+  </si>
+  <si>
+    <t>JOHNNY TAN-Dec</t>
+  </si>
+  <si>
+    <t>NOOR MUHAMMAD FARZHANI BIN SHAL*-Dec</t>
+  </si>
+  <si>
+    <t>LIM CHUN SE-Dec</t>
+  </si>
+  <si>
+    <t>WAN ZULHELMI HAZWAN-Dec</t>
+  </si>
+  <si>
+    <t>JOE CHAN-Dec</t>
+  </si>
+  <si>
+    <t>ADNAN FAISHAL TAUFIQ0-Dec</t>
+  </si>
+  <si>
+    <t>TOH CHEE CHONG-Dec</t>
   </si>
 </sst>
 </file>
@@ -419,16 +479,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}" name="Counts" displayName="Counts" ref="A1:F81" totalsRowShown="0">
-  <autoFilter ref="A1:F81" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}" name="Counts" displayName="Counts" ref="A1:F100" totalsRowShown="0">
+  <autoFilter ref="A1:F100" xr:uid="{77FEC210-2280-4E18-8F5A-15E8E862D619}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9141748B-6317-4CD5-A0CF-0C621F2C636D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{D729F9DC-2885-431A-8D27-044A575F6C94}" name="Month"/>
@@ -725,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2359,6 +2422,386 @@
         <v>109</v>
       </c>
     </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <v>8</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>9</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <v>8</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <v>7</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2369,65 +2812,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">
+      <Url>https://globalpsa.sharepoint.com/sites/PSAC-CNBD-YOD-efile/_layouts/15/DocIdRedir.aspx?ID=NTQKWFHJQEXS-722922400-10134</Url>
+      <Description>NTQKWFHJQEXS-722922400-10134</Description>
+    </_dlc_DocIdUrl>
+    <_Flow_SignoffStatus xmlns="98ab9645-6273-4dd2-93a8-2006c9571166" xsi:nil="true"/>
+    <TaxCatchAll xmlns="90d94301-7e12-4ce9-870c-87e055f2af11" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98ab9645-6273-4dd2-93a8-2006c9571166">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003DB5FB9A56B6C74E843061FACE0FB799" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb57c7be49e2a98e4d3c93c5cc5759a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90d94301-7e12-4ce9-870c-87e055f2af11" xmlns:ns3="98ab9645-6273-4dd2-93a8-2006c9571166" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dc07bbf6a8030390a3eb25b77571d27b" ns2:_="" ns3:_="">
     <xsd:import namespace="90d94301-7e12-4ce9-870c-87e055f2af11"/>
@@ -2647,40 +3048,77 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">NTQKWFHJQEXS-722922400-10134</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="90d94301-7e12-4ce9-870c-87e055f2af11">
-      <Url>https://globalpsa.sharepoint.com/sites/PSAC-CNBD-YOD-efile/_layouts/15/DocIdRedir.aspx?ID=NTQKWFHJQEXS-722922400-10134</Url>
-      <Description>NTQKWFHJQEXS-722922400-10134</Description>
-    </_dlc_DocIdUrl>
-    <_Flow_SignoffStatus xmlns="98ab9645-6273-4dd2-93a8-2006c9571166" xsi:nil="true"/>
-    <TaxCatchAll xmlns="90d94301-7e12-4ce9-870c-87e055f2af11" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98ab9645-6273-4dd2-93a8-2006c9571166">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
+    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82533B83-2746-4351-881A-FC57D78D9795}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2699,13 +3137,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED3A92A-5EFD-4B3C-A45E-0015987861B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{104A0AB9-EB35-43B8-8070-2044B7310377}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9805BB9-D83A-4B7E-9989-DEFF9906C71F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90d94301-7e12-4ce9-870c-87e055f2af11"/>
-    <ds:schemaRef ds:uri="98ab9645-6273-4dd2-93a8-2006c9571166"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>